--- a/biology/Botanique/Œillet_superbe/Œillet_superbe.xlsx
+++ b/biology/Botanique/Œillet_superbe/Œillet_superbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_superbe</t>
+          <t>Œillet_superbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus superbus
 L'œillet superbe (Dianthus superbus) est une espèce de plantes herbacées vivaces de la famille des Caryophyllaceae, originaire des régions tempérées d'Europe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92illet_superbe</t>
+          <t>Œillet_superbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de 60 à 90 cm de haut. Sa tige est raffinée.
 Ses feuilles sont linéaires et étroites, d'un beau vert bleuté clair.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92illet_superbe</t>
+          <t>Œillet_superbe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce est originaire des régions tempérées de l'ancien monde :
 Asie : de l'Asie centrale (Kazakhstan, Kirghizistan, Tadjikistan) et de la Russie à l'Extrême-Orient (Chine, Japon) ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92illet_superbe</t>
+          <t>Œillet_superbe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est protégé sur l'ensemble du territoire français métropolitain. Sa destruction est interdite sauf sur les parcelles cultivées. Le ramassage ou la récolte, l'utilisation, le transport, et la cession à titre gratuit ou onéreux sont réglementés, étant soumis à autorisation du ministre chargé de la protection de la nature après avis du comité permanent du conseil national de la protection de la nature. Cette autorisation doit être présentée à toute requête des agents autorisés[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est protégé sur l'ensemble du territoire français métropolitain. Sa destruction est interdite sauf sur les parcelles cultivées. Le ramassage ou la récolte, l'utilisation, le transport, et la cession à titre gratuit ou onéreux sont réglementés, étant soumis à autorisation du ministre chargé de la protection de la nature après avis du comité permanent du conseil national de la protection de la nature. Cette autorisation doit être présentée à toute requête des agents autorisés.
 </t>
         </is>
       </c>
